--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/仓储物流-订单入库.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/仓储物流-订单入库.xlsx
@@ -1,116 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\易瑞资料\report\报表1.6\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\space\ideaSpace\report\java\erui-parent\erui-boss-web\src\main\webapp\WEB-INF\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{88ACC52B-8234-41D7-88C6-5CC3DA5E4193}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="订单" sheetId="1" r:id="rId1"/>
+    <sheet name="入库" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
-  <si>
-    <t>时间</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>入库单号</t>
   </si>
   <si>
+    <t>项目执行号</t>
+  </si>
+  <si>
     <t>采购通知单号</t>
   </si>
   <si>
-    <t>项目执行号</t>
-  </si>
-  <si>
-    <t>供应商名称</t>
+    <t>数量</t>
   </si>
   <si>
     <t>金额</t>
   </si>
   <si>
-    <t>采购员</t>
-  </si>
-  <si>
-    <t>数量</t>
+    <t>入库时间</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>入库时间</t>
-  </si>
-  <si>
-    <t>EX20170530</t>
-  </si>
-  <si>
-    <t>ER20170314</t>
-  </si>
-  <si>
-    <t>郭蔚</t>
-  </si>
-  <si>
-    <t>淄博华创精细陶瓷有限公司</t>
-  </si>
-  <si>
-    <t>不错不错</t>
+    <t>单据类型</t>
+  </si>
+  <si>
+    <t>库存总量</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>YRX20170482-FS</t>
+  </si>
+  <si>
+    <t>PJ171166</t>
+  </si>
+  <si>
+    <t>订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EX20170531</t>
-  </si>
-  <si>
-    <t>EX20170532</t>
-  </si>
-  <si>
-    <t>EX20170533</t>
-  </si>
-  <si>
-    <t>EX20170534</t>
-  </si>
-  <si>
-    <t>EX20170535</t>
-  </si>
-  <si>
-    <t>EX20170536</t>
-  </si>
-  <si>
-    <t>ER20170315</t>
-  </si>
-  <si>
-    <t>ER20170316</t>
-  </si>
-  <si>
-    <t>ER20170317</t>
-  </si>
-  <si>
-    <t>ER20170318</t>
-  </si>
-  <si>
-    <t>ER20170319</t>
-  </si>
-  <si>
-    <t>ER20170320</t>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +92,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,33 +159,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="蓝色日期" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF92D050"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF000000"/>
+      <color rgb="FF92D050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -455,287 +488,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>201700893</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="4">
+        <v>62</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43110</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>201700893</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>752</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43110</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>43025</v>
-      </c>
-      <c r="B2" s="2">
-        <v>201700763</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3">
-        <v>43024</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43025</v>
-      </c>
-      <c r="B3" s="2">
-        <v>201700764</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="3">
-        <v>43025</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>43026</v>
-      </c>
-      <c r="B4" s="2">
-        <v>201700765</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>43026</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>43027</v>
-      </c>
-      <c r="B5" s="2">
-        <v>201700766</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>43027</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>43028</v>
-      </c>
-      <c r="B6" s="2">
-        <v>201700767</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>43028</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>43029</v>
-      </c>
-      <c r="B7" s="2">
-        <v>201700768</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>43029</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>43030</v>
-      </c>
-      <c r="B8" s="2">
-        <v>201700769</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43030</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
+      <c r="I3" s="1">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="C2:C8" name="区域1_2" securityDescriptor=""/>
-    <protectedRange sqref="D2:D8" name="区域1_1_67" securityDescriptor=""/>
-    <protectedRange sqref="H2:H8" name="区域1_2_1" securityDescriptor=""/>
-  </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
